--- a/backend/src/tables/test2.xlsx
+++ b/backend/src/tables/test2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Общие данные" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Корреляции групп 8-11 лет" sheetId="6" r:id="rId6"/>
     <sheet name="Лист1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -5177,7 +5177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0.000"/>
     <numFmt numFmtId="165" formatCode="####.000"/>
@@ -6363,8 +6363,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6372,8 +6378,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6382,12 +6388,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -6413,6 +6413,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6444,28 +6465,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6474,19 +6486,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -6818,7 +6818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6850,9 +6850,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6884,6 +6885,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -7059,36 +7061,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" customWidth="1"/>
-    <col min="19" max="19" width="11.6328125" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" customWidth="1"/>
-    <col min="21" max="21" width="14.453125" customWidth="1"/>
-    <col min="22" max="22" width="11.6328125" customWidth="1"/>
-    <col min="23" max="23" width="12.6328125" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" customWidth="1"/>
-    <col min="25" max="25" width="15.453125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.08984375" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
     <col min="28" max="35" width="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="46" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7132,7 +7134,7 @@
       <c r="BO1" s="200"/>
       <c r="BP1" s="200"/>
     </row>
-    <row r="2" spans="1:68" ht="58">
+    <row r="2" spans="1:68" ht="60">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="15.5">
+    <row r="3" spans="1:68" ht="15.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -13863,7 +13865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:68" ht="15.5">
+    <row r="32" spans="1:68" ht="15.75">
       <c r="AB32" s="1"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="4"/>
@@ -18486,22 +18488,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="29">
+    <row r="110" spans="1:3" ht="30">
       <c r="A110" s="138" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="29">
+    <row r="111" spans="1:3" ht="30">
       <c r="A111" s="138" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="29">
+    <row r="112" spans="1:3" ht="30">
       <c r="A112" s="138" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="29">
+    <row r="113" spans="1:1" ht="30">
       <c r="A113" s="138" t="s">
         <v>425</v>
       </c>
@@ -18611,16 +18613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BR30"/>
   <sheetViews>
     <sheetView topLeftCell="AQ10" workbookViewId="0">
       <selection activeCell="AX27" sqref="AX27:AZ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="46" max="46" width="8.90625" style="160"/>
+    <col min="46" max="46" width="8.85546875" style="160"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:70">
@@ -18631,82 +18633,82 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="2:70" ht="15" thickBot="1">
-      <c r="B3" s="205" t="s">
+    <row r="3" spans="2:70" ht="15.75" thickBot="1">
+      <c r="B3" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="205"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="205"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="205"/>
-      <c r="AJ3" s="205"/>
-      <c r="AK3" s="205"/>
-      <c r="AL3" s="205"/>
-      <c r="AM3" s="205"/>
-      <c r="AN3" s="205"/>
-      <c r="AO3" s="205"/>
-      <c r="AP3" s="205"/>
-      <c r="AQ3" s="205"/>
-      <c r="AR3" s="205"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
+      <c r="AM3" s="207"/>
+      <c r="AN3" s="207"/>
+      <c r="AO3" s="207"/>
+      <c r="AP3" s="207"/>
+      <c r="AQ3" s="207"/>
+      <c r="AR3" s="207"/>
       <c r="AS3" s="5"/>
-      <c r="AU3" s="202" t="s">
+      <c r="AU3" s="204" t="s">
         <v>444</v>
       </c>
-      <c r="AV3" s="202"/>
-      <c r="AW3" s="202"/>
-      <c r="AX3" s="202"/>
-      <c r="AY3" s="202"/>
-      <c r="AZ3" s="202"/>
-      <c r="BA3" s="202"/>
-      <c r="BB3" s="202"/>
-      <c r="BC3" s="202"/>
-      <c r="BD3" s="202"/>
-      <c r="BE3" s="202"/>
-      <c r="BF3" s="202"/>
-      <c r="BG3" s="202"/>
-      <c r="BH3" s="202"/>
-      <c r="BI3" s="202"/>
-      <c r="BJ3" s="202"/>
-      <c r="BK3" s="202"/>
-      <c r="BL3" s="202"/>
-      <c r="BM3" s="202"/>
-      <c r="BN3" s="202"/>
-      <c r="BO3" s="202"/>
-      <c r="BP3" s="202"/>
-      <c r="BQ3" s="202"/>
+      <c r="AV3" s="204"/>
+      <c r="AW3" s="204"/>
+      <c r="AX3" s="204"/>
+      <c r="AY3" s="204"/>
+      <c r="AZ3" s="204"/>
+      <c r="BA3" s="204"/>
+      <c r="BB3" s="204"/>
+      <c r="BC3" s="204"/>
+      <c r="BD3" s="204"/>
+      <c r="BE3" s="204"/>
+      <c r="BF3" s="204"/>
+      <c r="BG3" s="204"/>
+      <c r="BH3" s="204"/>
+      <c r="BI3" s="204"/>
+      <c r="BJ3" s="204"/>
+      <c r="BK3" s="204"/>
+      <c r="BL3" s="204"/>
+      <c r="BM3" s="204"/>
+      <c r="BN3" s="204"/>
+      <c r="BO3" s="204"/>
+      <c r="BP3" s="204"/>
+      <c r="BQ3" s="204"/>
       <c r="BR3" s="141"/>
     </row>
-    <row r="4" spans="2:70" ht="36.5" thickTop="1" thickBot="1">
-      <c r="B4" s="206" t="s">
+    <row r="4" spans="2:70" ht="38.25" thickTop="1" thickBot="1">
+      <c r="B4" s="208" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -18836,7 +18838,7 @@
         <v>87</v>
       </c>
       <c r="AS4" s="5"/>
-      <c r="AU4" s="203" t="s">
+      <c r="AU4" s="205" t="s">
         <v>118</v>
       </c>
       <c r="AV4" s="142" t="s">
@@ -18907,7 +18909,7 @@
       </c>
       <c r="BR4" s="141"/>
     </row>
-    <row r="5" spans="2:70" ht="23.5" thickTop="1">
+    <row r="5" spans="2:70" ht="24.75" thickTop="1">
       <c r="B5" s="9" t="s">
         <v>119</v>
       </c>
@@ -19109,7 +19111,7 @@
       </c>
       <c r="BR5" s="141"/>
     </row>
-    <row r="6" spans="2:70" ht="34.5">
+    <row r="6" spans="2:70" ht="36">
       <c r="B6" s="13" t="s">
         <v>120</v>
       </c>
@@ -19513,7 +19515,7 @@
       </c>
       <c r="BR7" s="141"/>
     </row>
-    <row r="8" spans="2:70" ht="69">
+    <row r="8" spans="2:70" ht="72">
       <c r="B8" s="13" t="s">
         <v>122</v>
       </c>
@@ -19715,7 +19717,7 @@
       </c>
       <c r="BR8" s="141"/>
     </row>
-    <row r="9" spans="2:70" ht="46.5" thickBot="1">
+    <row r="9" spans="2:70" ht="48.75" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>123</v>
       </c>
@@ -19917,152 +19919,152 @@
       </c>
       <c r="BR9" s="141"/>
     </row>
-    <row r="10" spans="2:70" ht="15" thickTop="1">
-      <c r="B10" s="207" t="s">
+    <row r="10" spans="2:70" ht="15.75" thickTop="1">
+      <c r="B10" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
-      <c r="M10" s="207"/>
-      <c r="N10" s="207"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="207"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="207"/>
-      <c r="U10" s="207"/>
-      <c r="V10" s="207"/>
-      <c r="W10" s="207"/>
-      <c r="X10" s="207"/>
-      <c r="Y10" s="207"/>
-      <c r="Z10" s="207"/>
-      <c r="AA10" s="207"/>
-      <c r="AB10" s="207"/>
-      <c r="AC10" s="207"/>
-      <c r="AD10" s="207"/>
-      <c r="AE10" s="207"/>
-      <c r="AF10" s="207"/>
-      <c r="AG10" s="207"/>
-      <c r="AH10" s="207"/>
-      <c r="AI10" s="207"/>
-      <c r="AJ10" s="207"/>
-      <c r="AK10" s="207"/>
-      <c r="AL10" s="207"/>
-      <c r="AM10" s="207"/>
-      <c r="AN10" s="207"/>
-      <c r="AO10" s="207"/>
-      <c r="AP10" s="207"/>
-      <c r="AQ10" s="207"/>
-      <c r="AR10" s="207"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
+      <c r="P10" s="209"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="209"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="209"/>
+      <c r="U10" s="209"/>
+      <c r="V10" s="209"/>
+      <c r="W10" s="209"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="209"/>
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="209"/>
+      <c r="AB10" s="209"/>
+      <c r="AC10" s="209"/>
+      <c r="AD10" s="209"/>
+      <c r="AE10" s="209"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="209"/>
+      <c r="AI10" s="209"/>
+      <c r="AJ10" s="209"/>
+      <c r="AK10" s="209"/>
+      <c r="AL10" s="209"/>
+      <c r="AM10" s="209"/>
+      <c r="AN10" s="209"/>
+      <c r="AO10" s="209"/>
+      <c r="AP10" s="209"/>
+      <c r="AQ10" s="209"/>
+      <c r="AR10" s="209"/>
       <c r="AS10" s="5"/>
-      <c r="AU10" s="201" t="s">
+      <c r="AU10" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="AV10" s="201"/>
-      <c r="AW10" s="201"/>
-      <c r="AX10" s="201"/>
-      <c r="AY10" s="201"/>
-      <c r="AZ10" s="201"/>
-      <c r="BA10" s="201"/>
-      <c r="BB10" s="201"/>
-      <c r="BC10" s="201"/>
-      <c r="BD10" s="201"/>
-      <c r="BE10" s="201"/>
-      <c r="BF10" s="201"/>
-      <c r="BG10" s="201"/>
-      <c r="BH10" s="201"/>
-      <c r="BI10" s="201"/>
-      <c r="BJ10" s="201"/>
-      <c r="BK10" s="201"/>
-      <c r="BL10" s="201"/>
-      <c r="BM10" s="201"/>
-      <c r="BN10" s="201"/>
-      <c r="BO10" s="201"/>
-      <c r="BP10" s="201"/>
-      <c r="BQ10" s="201"/>
+      <c r="AV10" s="206"/>
+      <c r="AW10" s="206"/>
+      <c r="AX10" s="206"/>
+      <c r="AY10" s="206"/>
+      <c r="AZ10" s="206"/>
+      <c r="BA10" s="206"/>
+      <c r="BB10" s="206"/>
+      <c r="BC10" s="206"/>
+      <c r="BD10" s="206"/>
+      <c r="BE10" s="206"/>
+      <c r="BF10" s="206"/>
+      <c r="BG10" s="206"/>
+      <c r="BH10" s="206"/>
+      <c r="BI10" s="206"/>
+      <c r="BJ10" s="206"/>
+      <c r="BK10" s="206"/>
+      <c r="BL10" s="206"/>
+      <c r="BM10" s="206"/>
+      <c r="BN10" s="206"/>
+      <c r="BO10" s="206"/>
+      <c r="BP10" s="206"/>
+      <c r="BQ10" s="206"/>
       <c r="BR10" s="141"/>
     </row>
     <row r="11" spans="2:70">
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="207"/>
-      <c r="M11" s="207"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="207"/>
-      <c r="S11" s="207"/>
-      <c r="T11" s="207"/>
-      <c r="U11" s="207"/>
-      <c r="V11" s="207"/>
-      <c r="W11" s="207"/>
-      <c r="X11" s="207"/>
-      <c r="Y11" s="207"/>
-      <c r="Z11" s="207"/>
-      <c r="AA11" s="207"/>
-      <c r="AB11" s="207"/>
-      <c r="AC11" s="207"/>
-      <c r="AD11" s="207"/>
-      <c r="AE11" s="207"/>
-      <c r="AF11" s="207"/>
-      <c r="AG11" s="207"/>
-      <c r="AH11" s="207"/>
-      <c r="AI11" s="207"/>
-      <c r="AJ11" s="207"/>
-      <c r="AK11" s="207"/>
-      <c r="AL11" s="207"/>
-      <c r="AM11" s="207"/>
-      <c r="AN11" s="207"/>
-      <c r="AO11" s="207"/>
-      <c r="AP11" s="207"/>
-      <c r="AQ11" s="207"/>
-      <c r="AR11" s="207"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
+      <c r="P11" s="209"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="209"/>
+      <c r="S11" s="209"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="209"/>
+      <c r="V11" s="209"/>
+      <c r="W11" s="209"/>
+      <c r="X11" s="209"/>
+      <c r="Y11" s="209"/>
+      <c r="Z11" s="209"/>
+      <c r="AA11" s="209"/>
+      <c r="AB11" s="209"/>
+      <c r="AC11" s="209"/>
+      <c r="AD11" s="209"/>
+      <c r="AE11" s="209"/>
+      <c r="AF11" s="209"/>
+      <c r="AG11" s="209"/>
+      <c r="AH11" s="209"/>
+      <c r="AI11" s="209"/>
+      <c r="AJ11" s="209"/>
+      <c r="AK11" s="209"/>
+      <c r="AL11" s="209"/>
+      <c r="AM11" s="209"/>
+      <c r="AN11" s="209"/>
+      <c r="AO11" s="209"/>
+      <c r="AP11" s="209"/>
+      <c r="AQ11" s="209"/>
+      <c r="AR11" s="209"/>
       <c r="AS11" s="5"/>
-      <c r="AU11" s="201" t="s">
+      <c r="AU11" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="AV11" s="201"/>
-      <c r="AW11" s="201"/>
-      <c r="AX11" s="201"/>
-      <c r="AY11" s="201"/>
-      <c r="AZ11" s="201"/>
-      <c r="BA11" s="201"/>
-      <c r="BB11" s="201"/>
-      <c r="BC11" s="201"/>
-      <c r="BD11" s="201"/>
-      <c r="BE11" s="201"/>
-      <c r="BF11" s="201"/>
-      <c r="BG11" s="201"/>
-      <c r="BH11" s="201"/>
-      <c r="BI11" s="201"/>
-      <c r="BJ11" s="201"/>
-      <c r="BK11" s="201"/>
-      <c r="BL11" s="201"/>
-      <c r="BM11" s="201"/>
-      <c r="BN11" s="201"/>
-      <c r="BO11" s="201"/>
-      <c r="BP11" s="201"/>
-      <c r="BQ11" s="201"/>
+      <c r="AV11" s="206"/>
+      <c r="AW11" s="206"/>
+      <c r="AX11" s="206"/>
+      <c r="AY11" s="206"/>
+      <c r="AZ11" s="206"/>
+      <c r="BA11" s="206"/>
+      <c r="BB11" s="206"/>
+      <c r="BC11" s="206"/>
+      <c r="BD11" s="206"/>
+      <c r="BE11" s="206"/>
+      <c r="BF11" s="206"/>
+      <c r="BG11" s="206"/>
+      <c r="BH11" s="206"/>
+      <c r="BI11" s="206"/>
+      <c r="BJ11" s="206"/>
+      <c r="BK11" s="206"/>
+      <c r="BL11" s="206"/>
+      <c r="BM11" s="206"/>
+      <c r="BN11" s="206"/>
+      <c r="BO11" s="206"/>
+      <c r="BP11" s="206"/>
+      <c r="BQ11" s="206"/>
       <c r="BR11" s="141"/>
     </row>
     <row r="14" spans="2:70">
@@ -20070,44 +20072,44 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:70" ht="15" thickBot="1">
-      <c r="B15" s="208" t="s">
+    <row r="15" spans="2:70" ht="15.75" thickBot="1">
+      <c r="B15" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="208"/>
-      <c r="Q15" s="208"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="202"/>
+      <c r="Q15" s="202"/>
       <c r="R15" s="25"/>
-      <c r="AW15" s="202" t="s">
+      <c r="AW15" s="204" t="s">
         <v>469</v>
       </c>
-      <c r="AX15" s="202"/>
-      <c r="AY15" s="202"/>
-      <c r="AZ15" s="202"/>
-      <c r="BA15" s="202"/>
-      <c r="BB15" s="202"/>
-      <c r="BC15" s="202"/>
-      <c r="BD15" s="202"/>
-      <c r="BE15" s="202"/>
-      <c r="BF15" s="202"/>
-      <c r="BG15" s="202"/>
-      <c r="BH15" s="202"/>
+      <c r="AX15" s="204"/>
+      <c r="AY15" s="204"/>
+      <c r="AZ15" s="204"/>
+      <c r="BA15" s="204"/>
+      <c r="BB15" s="204"/>
+      <c r="BC15" s="204"/>
+      <c r="BD15" s="204"/>
+      <c r="BE15" s="204"/>
+      <c r="BF15" s="204"/>
+      <c r="BG15" s="204"/>
+      <c r="BH15" s="204"/>
       <c r="BI15" s="141"/>
     </row>
-    <row r="16" spans="2:70" ht="71" thickTop="1" thickBot="1">
-      <c r="B16" s="204" t="s">
+    <row r="16" spans="2:70" ht="86.25" thickTop="1" thickBot="1">
+      <c r="B16" s="203" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -20156,7 +20158,7 @@
         <v>167</v>
       </c>
       <c r="R16" s="25"/>
-      <c r="AW16" s="203" t="s">
+      <c r="AW16" s="205" t="s">
         <v>118</v>
       </c>
       <c r="AX16" s="142" t="s">
@@ -20194,7 +20196,7 @@
       </c>
       <c r="BI16" s="141"/>
     </row>
-    <row r="17" spans="2:61" ht="15" thickTop="1">
+    <row r="17" spans="2:61" ht="15.75" thickTop="1">
       <c r="B17" s="29" t="s">
         <v>121</v>
       </c>
@@ -20282,7 +20284,7 @@
       </c>
       <c r="BI17" s="141"/>
     </row>
-    <row r="18" spans="2:61" ht="69.5" thickBot="1">
+    <row r="18" spans="2:61" ht="72.75" thickBot="1">
       <c r="B18" s="33" t="s">
         <v>122</v>
       </c>
@@ -20370,112 +20372,112 @@
       </c>
       <c r="BI18" s="141"/>
     </row>
-    <row r="19" spans="2:61" ht="15" thickTop="1">
-      <c r="B19" s="209" t="s">
+    <row r="19" spans="2:61" ht="15.75" thickTop="1">
+      <c r="B19" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="209"/>
-      <c r="Q19" s="209"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
       <c r="R19" s="25"/>
-      <c r="AW19" s="201" t="s">
+      <c r="AW19" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="AX19" s="201"/>
-      <c r="AY19" s="201"/>
-      <c r="AZ19" s="201"/>
-      <c r="BA19" s="201"/>
-      <c r="BB19" s="201"/>
-      <c r="BC19" s="201"/>
-      <c r="BD19" s="201"/>
-      <c r="BE19" s="201"/>
-      <c r="BF19" s="201"/>
-      <c r="BG19" s="201"/>
-      <c r="BH19" s="201"/>
+      <c r="AX19" s="206"/>
+      <c r="AY19" s="206"/>
+      <c r="AZ19" s="206"/>
+      <c r="BA19" s="206"/>
+      <c r="BB19" s="206"/>
+      <c r="BC19" s="206"/>
+      <c r="BD19" s="206"/>
+      <c r="BE19" s="206"/>
+      <c r="BF19" s="206"/>
+      <c r="BG19" s="206"/>
+      <c r="BH19" s="206"/>
       <c r="BI19" s="141"/>
     </row>
     <row r="20" spans="2:61">
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="209"/>
-      <c r="O20" s="209"/>
-      <c r="P20" s="209"/>
-      <c r="Q20" s="209"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
       <c r="R20" s="25"/>
-      <c r="AW20" s="201" t="s">
+      <c r="AW20" s="206" t="s">
         <v>456</v>
       </c>
-      <c r="AX20" s="201"/>
-      <c r="AY20" s="201"/>
-      <c r="AZ20" s="201"/>
-      <c r="BA20" s="201"/>
-      <c r="BB20" s="201"/>
-      <c r="BC20" s="201"/>
-      <c r="BD20" s="201"/>
-      <c r="BE20" s="201"/>
-      <c r="BF20" s="201"/>
-      <c r="BG20" s="201"/>
-      <c r="BH20" s="201"/>
+      <c r="AX20" s="206"/>
+      <c r="AY20" s="206"/>
+      <c r="AZ20" s="206"/>
+      <c r="BA20" s="206"/>
+      <c r="BB20" s="206"/>
+      <c r="BC20" s="206"/>
+      <c r="BD20" s="206"/>
+      <c r="BE20" s="206"/>
+      <c r="BF20" s="206"/>
+      <c r="BG20" s="206"/>
+      <c r="BH20" s="206"/>
       <c r="BI20" s="141"/>
     </row>
     <row r="21" spans="2:61">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="209"/>
-      <c r="P21" s="209"/>
-      <c r="Q21" s="209"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
       <c r="R21" s="25"/>
-      <c r="AW21" s="201" t="s">
+      <c r="AW21" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="AX21" s="201"/>
-      <c r="AY21" s="201"/>
-      <c r="AZ21" s="201"/>
-      <c r="BA21" s="201"/>
-      <c r="BB21" s="201"/>
-      <c r="BC21" s="201"/>
-      <c r="BD21" s="201"/>
-      <c r="BE21" s="201"/>
-      <c r="BF21" s="201"/>
-      <c r="BG21" s="201"/>
-      <c r="BH21" s="201"/>
+      <c r="AX21" s="206"/>
+      <c r="AY21" s="206"/>
+      <c r="AZ21" s="206"/>
+      <c r="BA21" s="206"/>
+      <c r="BB21" s="206"/>
+      <c r="BC21" s="206"/>
+      <c r="BD21" s="206"/>
+      <c r="BE21" s="206"/>
+      <c r="BF21" s="206"/>
+      <c r="BG21" s="206"/>
+      <c r="BH21" s="206"/>
       <c r="BI21" s="141"/>
     </row>
     <row r="23" spans="2:61">
@@ -20483,44 +20485,44 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="2:61" ht="15" thickBot="1">
-      <c r="B24" s="208" t="s">
+    <row r="24" spans="2:61" ht="15.75" thickBot="1">
+      <c r="B24" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="208"/>
-      <c r="Q24" s="208"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="202"/>
+      <c r="M24" s="202"/>
+      <c r="N24" s="202"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="202"/>
+      <c r="Q24" s="202"/>
       <c r="R24" s="25"/>
-      <c r="AW24" s="202" t="s">
+      <c r="AW24" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="AX24" s="202"/>
-      <c r="AY24" s="202"/>
-      <c r="AZ24" s="202"/>
-      <c r="BA24" s="202"/>
-      <c r="BB24" s="202"/>
-      <c r="BC24" s="202"/>
-      <c r="BD24" s="202"/>
-      <c r="BE24" s="202"/>
-      <c r="BF24" s="202"/>
-      <c r="BG24" s="202"/>
-      <c r="BH24" s="202"/>
+      <c r="AX24" s="204"/>
+      <c r="AY24" s="204"/>
+      <c r="AZ24" s="204"/>
+      <c r="BA24" s="204"/>
+      <c r="BB24" s="204"/>
+      <c r="BC24" s="204"/>
+      <c r="BD24" s="204"/>
+      <c r="BE24" s="204"/>
+      <c r="BF24" s="204"/>
+      <c r="BG24" s="204"/>
+      <c r="BH24" s="204"/>
       <c r="BI24" s="141"/>
     </row>
-    <row r="25" spans="2:61" ht="71" thickTop="1" thickBot="1">
-      <c r="B25" s="204" t="s">
+    <row r="25" spans="2:61" ht="86.25" thickTop="1" thickBot="1">
+      <c r="B25" s="203" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -20569,7 +20571,7 @@
         <v>167</v>
       </c>
       <c r="R25" s="25"/>
-      <c r="AW25" s="203" t="s">
+      <c r="AW25" s="205" t="s">
         <v>118</v>
       </c>
       <c r="AX25" s="142" t="s">
@@ -20607,7 +20609,7 @@
       </c>
       <c r="BI25" s="141"/>
     </row>
-    <row r="26" spans="2:61" ht="15" thickTop="1">
+    <row r="26" spans="2:61" ht="15.75" thickTop="1">
       <c r="B26" s="29" t="s">
         <v>121</v>
       </c>
@@ -20695,7 +20697,7 @@
       </c>
       <c r="BI26" s="141"/>
     </row>
-    <row r="27" spans="2:61" ht="69.5" thickBot="1">
+    <row r="27" spans="2:61" ht="72.75" thickBot="1">
       <c r="B27" s="33" t="s">
         <v>122</v>
       </c>
@@ -20783,124 +20785,124 @@
       </c>
       <c r="BI27" s="141"/>
     </row>
-    <row r="28" spans="2:61" ht="15" thickTop="1">
-      <c r="B28" s="209" t="s">
+    <row r="28" spans="2:61" ht="15.75" thickTop="1">
+      <c r="B28" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="209"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="209"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
       <c r="R28" s="25"/>
-      <c r="AW28" s="201" t="s">
+      <c r="AW28" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="AX28" s="201"/>
-      <c r="AY28" s="201"/>
-      <c r="AZ28" s="201"/>
-      <c r="BA28" s="201"/>
-      <c r="BB28" s="201"/>
-      <c r="BC28" s="201"/>
-      <c r="BD28" s="201"/>
-      <c r="BE28" s="201"/>
-      <c r="BF28" s="201"/>
-      <c r="BG28" s="201"/>
-      <c r="BH28" s="201"/>
+      <c r="AX28" s="206"/>
+      <c r="AY28" s="206"/>
+      <c r="AZ28" s="206"/>
+      <c r="BA28" s="206"/>
+      <c r="BB28" s="206"/>
+      <c r="BC28" s="206"/>
+      <c r="BD28" s="206"/>
+      <c r="BE28" s="206"/>
+      <c r="BF28" s="206"/>
+      <c r="BG28" s="206"/>
+      <c r="BH28" s="206"/>
       <c r="BI28" s="141"/>
     </row>
     <row r="29" spans="2:61">
-      <c r="B29" s="209" t="s">
+      <c r="B29" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="209"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="209"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
       <c r="R29" s="25"/>
-      <c r="AW29" s="201" t="s">
+      <c r="AW29" s="206" t="s">
         <v>456</v>
       </c>
-      <c r="AX29" s="201"/>
-      <c r="AY29" s="201"/>
-      <c r="AZ29" s="201"/>
-      <c r="BA29" s="201"/>
-      <c r="BB29" s="201"/>
-      <c r="BC29" s="201"/>
-      <c r="BD29" s="201"/>
-      <c r="BE29" s="201"/>
-      <c r="BF29" s="201"/>
-      <c r="BG29" s="201"/>
-      <c r="BH29" s="201"/>
+      <c r="AX29" s="206"/>
+      <c r="AY29" s="206"/>
+      <c r="AZ29" s="206"/>
+      <c r="BA29" s="206"/>
+      <c r="BB29" s="206"/>
+      <c r="BC29" s="206"/>
+      <c r="BD29" s="206"/>
+      <c r="BE29" s="206"/>
+      <c r="BF29" s="206"/>
+      <c r="BG29" s="206"/>
+      <c r="BH29" s="206"/>
       <c r="BI29" s="141"/>
     </row>
     <row r="30" spans="2:61">
-      <c r="B30" s="209" t="s">
+      <c r="B30" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="209"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="209"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
       <c r="R30" s="25"/>
-      <c r="AW30" s="201" t="s">
+      <c r="AW30" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="AX30" s="201"/>
-      <c r="AY30" s="201"/>
-      <c r="AZ30" s="201"/>
-      <c r="BA30" s="201"/>
-      <c r="BB30" s="201"/>
-      <c r="BC30" s="201"/>
-      <c r="BD30" s="201"/>
-      <c r="BE30" s="201"/>
-      <c r="BF30" s="201"/>
-      <c r="BG30" s="201"/>
-      <c r="BH30" s="201"/>
+      <c r="AX30" s="206"/>
+      <c r="AY30" s="206"/>
+      <c r="AZ30" s="206"/>
+      <c r="BA30" s="206"/>
+      <c r="BB30" s="206"/>
+      <c r="BC30" s="206"/>
+      <c r="BD30" s="206"/>
+      <c r="BE30" s="206"/>
+      <c r="BF30" s="206"/>
+      <c r="BG30" s="206"/>
+      <c r="BH30" s="206"/>
       <c r="BI30" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="AW28:BH28"/>
+    <mergeCell ref="AW29:BH29"/>
+    <mergeCell ref="AW30:BH30"/>
+    <mergeCell ref="AW19:BH19"/>
+    <mergeCell ref="AW20:BH20"/>
+    <mergeCell ref="AW21:BH21"/>
+    <mergeCell ref="AW24:BH24"/>
+    <mergeCell ref="AW25"/>
     <mergeCell ref="AU3:BQ3"/>
     <mergeCell ref="AU4"/>
     <mergeCell ref="AU10:BQ10"/>
@@ -20913,14 +20915,14 @@
     <mergeCell ref="B15:Q15"/>
     <mergeCell ref="AW15:BH15"/>
     <mergeCell ref="AW16"/>
-    <mergeCell ref="AW28:BH28"/>
-    <mergeCell ref="AW29:BH29"/>
-    <mergeCell ref="AW30:BH30"/>
-    <mergeCell ref="AW19:BH19"/>
-    <mergeCell ref="AW20:BH20"/>
-    <mergeCell ref="AW21:BH21"/>
-    <mergeCell ref="AW24:BH24"/>
-    <mergeCell ref="AW25"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="B28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -20928,19 +20930,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA94"/>
   <sheetViews>
     <sheetView topLeftCell="F13" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" ht="15" thickBot="1">
+    <row r="3" spans="2:26" ht="15.75" thickBot="1">
       <c r="B3" s="210" t="s">
         <v>201</v>
       </c>
@@ -20957,7 +20959,7 @@
       <c r="M3" s="210"/>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="2:26" ht="36.5" thickTop="1" thickBot="1">
+    <row r="4" spans="2:26" ht="38.25" thickTop="1" thickBot="1">
       <c r="B4" s="48" t="s">
         <v>118</v>
       </c>
@@ -21008,7 +21010,7 @@
       <c r="Y4" s="60"/>
       <c r="Z4" s="60"/>
     </row>
-    <row r="5" spans="2:26" ht="36.5" thickTop="1" thickBot="1">
+    <row r="5" spans="2:26" ht="49.5" thickTop="1" thickBot="1">
       <c r="B5" s="43" t="s">
         <v>220</v>
       </c>
@@ -21061,7 +21063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="15" thickTop="1">
+    <row r="6" spans="2:26" ht="15.75" thickTop="1">
       <c r="B6" s="45"/>
       <c r="C6" s="46" t="s">
         <v>30</v>
@@ -21364,7 +21366,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="55"/>
     </row>
-    <row r="15" spans="2:26" ht="23">
+    <row r="15" spans="2:26" ht="24">
       <c r="B15" s="45"/>
       <c r="C15" s="46" t="s">
         <v>105</v>
@@ -21395,7 +21397,7 @@
       <c r="Y15" s="55"/>
       <c r="Z15" s="55"/>
     </row>
-    <row r="16" spans="2:26" ht="23">
+    <row r="16" spans="2:26" ht="24">
       <c r="B16" s="45"/>
       <c r="C16" s="46" t="s">
         <v>106</v>
@@ -21457,7 +21459,7 @@
       <c r="Y17" s="55"/>
       <c r="Z17" s="55"/>
     </row>
-    <row r="18" spans="2:26" ht="23">
+    <row r="18" spans="2:26" ht="24">
       <c r="B18" s="45"/>
       <c r="C18" s="46" t="s">
         <v>108</v>
@@ -21494,7 +21496,7 @@
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
     </row>
-    <row r="19" spans="2:26" ht="23">
+    <row r="19" spans="2:26" ht="24">
       <c r="B19" s="45"/>
       <c r="C19" s="46" t="s">
         <v>109</v>
@@ -21533,7 +21535,7 @@
       <c r="Y19" s="55"/>
       <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="2:26" ht="23">
+    <row r="20" spans="2:26" ht="24">
       <c r="B20" s="45"/>
       <c r="C20" s="46" t="s">
         <v>110</v>
@@ -21570,7 +21572,7 @@
       </c>
       <c r="Z20" s="55"/>
     </row>
-    <row r="21" spans="2:26" ht="23">
+    <row r="21" spans="2:26" ht="24">
       <c r="B21" s="45"/>
       <c r="C21" s="46" t="s">
         <v>111</v>
@@ -21605,7 +21607,7 @@
       </c>
       <c r="Z21" s="55"/>
     </row>
-    <row r="22" spans="2:26" ht="23">
+    <row r="22" spans="2:26" ht="24">
       <c r="B22" s="45"/>
       <c r="C22" s="46" t="s">
         <v>112</v>
@@ -21640,7 +21642,7 @@
       <c r="Y22" s="55"/>
       <c r="Z22" s="55"/>
     </row>
-    <row r="23" spans="2:26" ht="23">
+    <row r="23" spans="2:26" ht="24">
       <c r="B23" s="45"/>
       <c r="C23" s="46" t="s">
         <v>113</v>
@@ -21679,7 +21681,7 @@
       <c r="Y23" s="55"/>
       <c r="Z23" s="55"/>
     </row>
-    <row r="24" spans="2:26" ht="23">
+    <row r="24" spans="2:26" ht="24">
       <c r="B24" s="45"/>
       <c r="C24" s="46" t="s">
         <v>114</v>
@@ -21712,7 +21714,7 @@
       <c r="Y24" s="55"/>
       <c r="Z24" s="55"/>
     </row>
-    <row r="25" spans="2:26" ht="23">
+    <row r="25" spans="2:26" ht="24">
       <c r="B25" s="45"/>
       <c r="C25" s="46" t="s">
         <v>115</v>
@@ -21745,7 +21747,7 @@
       <c r="Y25" s="55"/>
       <c r="Z25" s="55"/>
     </row>
-    <row r="26" spans="2:26" ht="34.5">
+    <row r="26" spans="2:26" ht="36">
       <c r="B26" s="45"/>
       <c r="C26" s="46" t="s">
         <v>116</v>
@@ -21780,7 +21782,7 @@
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
     </row>
-    <row r="27" spans="2:26" ht="23">
+    <row r="27" spans="2:26" ht="24">
       <c r="B27" s="45"/>
       <c r="C27" s="46" t="s">
         <v>117</v>
@@ -21819,7 +21821,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="23">
+    <row r="28" spans="2:26" ht="24">
       <c r="B28" s="45"/>
       <c r="C28" s="46" t="s">
         <v>73</v>
@@ -22013,7 +22015,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
+    <row r="34" spans="2:26" ht="24">
       <c r="B34" s="45"/>
       <c r="C34" s="46" t="s">
         <v>74</v>
@@ -22077,7 +22079,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="23">
+    <row r="36" spans="2:26" ht="24">
       <c r="B36" s="45"/>
       <c r="C36" s="46" t="s">
         <v>78</v>
@@ -22141,7 +22143,7 @@
       <c r="Y37" s="55"/>
       <c r="Z37" s="55"/>
     </row>
-    <row r="38" spans="2:26" ht="23">
+    <row r="38" spans="2:26" ht="24">
       <c r="B38" s="45"/>
       <c r="C38" s="46" t="s">
         <v>80</v>
@@ -22205,7 +22207,7 @@
       <c r="Y39" s="55"/>
       <c r="Z39" s="55"/>
     </row>
-    <row r="40" spans="2:26" ht="23">
+    <row r="40" spans="2:26" ht="24">
       <c r="B40" s="45"/>
       <c r="C40" s="46" t="s">
         <v>82</v>
@@ -22267,7 +22269,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="55"/>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" ht="24">
       <c r="B42" s="45"/>
       <c r="C42" s="46" t="s">
         <v>84</v>
@@ -22430,7 +22432,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:26" ht="14.4" customHeight="1">
+    <row r="47" spans="2:26" ht="14.45" customHeight="1">
       <c r="B47" s="51" t="s">
         <v>203</v>
       </c>
@@ -22461,7 +22463,7 @@
       <c r="Y47" s="55"/>
       <c r="Z47" s="55"/>
     </row>
-    <row r="48" spans="2:26" ht="14.4" customHeight="1">
+    <row r="48" spans="2:26" ht="14.45" customHeight="1">
       <c r="B48" s="51" t="s">
         <v>204</v>
       </c>
@@ -22578,7 +22580,7 @@
     <row r="72" spans="27:27">
       <c r="AA72" s="52"/>
     </row>
-    <row r="73" spans="27:27" ht="16.25" customHeight="1">
+    <row r="73" spans="27:27" ht="16.350000000000001" customHeight="1">
       <c r="AA73" s="52"/>
     </row>
     <row r="74" spans="27:27">
@@ -22658,16 +22660,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF58"/>
   <sheetViews>
     <sheetView topLeftCell="E73" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:32" ht="15" thickBot="1"/>
+    <row r="2" spans="2:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:32">
       <c r="B3" t="s">
         <v>255</v>
@@ -22687,44 +22689,44 @@
       <c r="AD3" s="192"/>
       <c r="AE3" s="193"/>
     </row>
-    <row r="4" spans="2:32" ht="15" thickBot="1">
-      <c r="B4" s="233" t="s">
+    <row r="4" spans="2:32" ht="15.75" thickBot="1">
+      <c r="B4" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="233"/>
-      <c r="P4" s="233"/>
-      <c r="Q4" s="233"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
       <c r="R4" s="61"/>
-      <c r="T4" s="218" t="s">
+      <c r="T4" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="219"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="219"/>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="219"/>
-      <c r="AE4" s="220"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="226"/>
+      <c r="AD4" s="226"/>
+      <c r="AE4" s="227"/>
       <c r="AF4" s="61"/>
     </row>
-    <row r="5" spans="2:32" ht="71" thickTop="1" thickBot="1">
-      <c r="B5" s="234" t="s">
+    <row r="5" spans="2:32" ht="86.25" thickTop="1" thickBot="1">
+      <c r="B5" s="224" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -22773,7 +22775,7 @@
         <v>167</v>
       </c>
       <c r="R5" s="61"/>
-      <c r="T5" s="221" t="s">
+      <c r="T5" s="228" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="62" t="s">
@@ -22811,7 +22813,7 @@
       </c>
       <c r="AF5" s="61"/>
     </row>
-    <row r="6" spans="2:32" ht="15" thickTop="1">
+    <row r="6" spans="2:32" ht="15.75" thickTop="1">
       <c r="B6" s="65" t="s">
         <v>121</v>
       </c>
@@ -22899,7 +22901,7 @@
       </c>
       <c r="AF6" s="61"/>
     </row>
-    <row r="7" spans="2:32" ht="69.5" thickBot="1">
+    <row r="7" spans="2:32" ht="72.75" thickBot="1">
       <c r="B7" s="69" t="s">
         <v>122</v>
       </c>
@@ -22987,136 +22989,136 @@
       </c>
       <c r="AF7" s="61"/>
     </row>
-    <row r="8" spans="2:32" ht="15" thickTop="1">
-      <c r="B8" s="228" t="s">
+    <row r="8" spans="2:32" ht="15.75" thickTop="1">
+      <c r="B8" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="228"/>
-      <c r="Q8" s="228"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="218"/>
       <c r="R8" s="61"/>
-      <c r="T8" s="222" t="s">
+      <c r="T8" s="229" t="s">
         <v>168</v>
       </c>
-      <c r="U8" s="223"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="223"/>
-      <c r="Z8" s="223"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="223"/>
-      <c r="AC8" s="223"/>
-      <c r="AD8" s="223"/>
-      <c r="AE8" s="224"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="230"/>
+      <c r="AE8" s="231"/>
       <c r="AF8" s="61"/>
     </row>
     <row r="9" spans="2:32">
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="218" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="228"/>
-      <c r="O9" s="228"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="228"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="218"/>
       <c r="R9" s="61"/>
-      <c r="T9" s="222" t="s">
+      <c r="T9" s="229" t="s">
         <v>169</v>
       </c>
-      <c r="U9" s="223"/>
-      <c r="V9" s="223"/>
-      <c r="W9" s="223"/>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="223"/>
-      <c r="AA9" s="223"/>
-      <c r="AB9" s="223"/>
-      <c r="AC9" s="223"/>
-      <c r="AD9" s="223"/>
-      <c r="AE9" s="224"/>
+      <c r="U9" s="230"/>
+      <c r="V9" s="230"/>
+      <c r="W9" s="230"/>
+      <c r="X9" s="230"/>
+      <c r="Y9" s="230"/>
+      <c r="Z9" s="230"/>
+      <c r="AA9" s="230"/>
+      <c r="AB9" s="230"/>
+      <c r="AC9" s="230"/>
+      <c r="AD9" s="230"/>
+      <c r="AE9" s="231"/>
       <c r="AF9" s="61"/>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1">
-      <c r="B10" s="228" t="s">
+    <row r="10" spans="2:32" ht="15.75" thickBot="1">
+      <c r="B10" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
-      <c r="N10" s="228"/>
-      <c r="O10" s="228"/>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="228"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="218"/>
+      <c r="Q10" s="218"/>
       <c r="R10" s="61"/>
-      <c r="T10" s="225" t="s">
+      <c r="T10" s="232" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="226"/>
-      <c r="V10" s="226"/>
-      <c r="W10" s="226"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="226"/>
-      <c r="Z10" s="226"/>
-      <c r="AA10" s="226"/>
-      <c r="AB10" s="226"/>
-      <c r="AC10" s="226"/>
-      <c r="AD10" s="226"/>
-      <c r="AE10" s="227"/>
+      <c r="U10" s="233"/>
+      <c r="V10" s="233"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="233"/>
+      <c r="Y10" s="233"/>
+      <c r="Z10" s="233"/>
+      <c r="AA10" s="233"/>
+      <c r="AB10" s="233"/>
+      <c r="AC10" s="233"/>
+      <c r="AD10" s="233"/>
+      <c r="AE10" s="234"/>
       <c r="AF10" s="61"/>
     </row>
-    <row r="13" spans="2:32" ht="15" thickBot="1">
-      <c r="B13" s="233" t="s">
+    <row r="13" spans="2:32" ht="15.75" thickBot="1">
+      <c r="B13" s="223" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="233"/>
-      <c r="M13" s="233"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
       <c r="AE13" s="61"/>
     </row>
-    <row r="14" spans="2:32" ht="36.5" thickTop="1" thickBot="1">
-      <c r="B14" s="229" t="s">
+    <row r="14" spans="2:32" ht="38.25" thickTop="1" thickBot="1">
+      <c r="B14" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="230"/>
+      <c r="C14" s="220"/>
       <c r="D14" s="63" t="s">
         <v>108</v>
       </c>
@@ -23149,8 +23151,8 @@
       </c>
       <c r="AE14" s="61"/>
     </row>
-    <row r="15" spans="2:32" ht="15" thickTop="1">
-      <c r="B15" s="231" t="s">
+    <row r="15" spans="2:32" ht="15.75" thickTop="1">
+      <c r="B15" s="221" t="s">
         <v>202</v>
       </c>
       <c r="C15" s="78" t="s">
@@ -23175,7 +23177,7 @@
       <c r="AE15" s="61"/>
     </row>
     <row r="16" spans="2:32">
-      <c r="B16" s="232"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="77" t="s">
         <v>30</v>
       </c>
@@ -23192,7 +23194,7 @@
       <c r="AE16" s="61"/>
     </row>
     <row r="17" spans="2:31">
-      <c r="B17" s="232"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="77" t="s">
         <v>31</v>
       </c>
@@ -23211,7 +23213,7 @@
       <c r="AE17" s="61"/>
     </row>
     <row r="18" spans="2:31">
-      <c r="B18" s="232"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="77" t="s">
         <v>33</v>
       </c>
@@ -23230,7 +23232,7 @@
       <c r="AE18" s="61"/>
     </row>
     <row r="19" spans="2:31">
-      <c r="B19" s="232"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="77" t="s">
         <v>34</v>
       </c>
@@ -23249,7 +23251,7 @@
       <c r="AE19" s="61"/>
     </row>
     <row r="20" spans="2:31">
-      <c r="B20" s="232"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="77" t="s">
         <v>35</v>
       </c>
@@ -23268,7 +23270,7 @@
       <c r="AE20" s="61"/>
     </row>
     <row r="21" spans="2:31">
-      <c r="B21" s="232"/>
+      <c r="B21" s="222"/>
       <c r="C21" s="77" t="s">
         <v>36</v>
       </c>
@@ -23285,7 +23287,7 @@
       <c r="AE21" s="61"/>
     </row>
     <row r="22" spans="2:31">
-      <c r="B22" s="232"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="77" t="s">
         <v>102</v>
       </c>
@@ -23308,7 +23310,7 @@
       <c r="AE22" s="61"/>
     </row>
     <row r="23" spans="2:31">
-      <c r="B23" s="232"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="77" t="s">
         <v>103</v>
       </c>
@@ -23330,8 +23332,8 @@
       </c>
       <c r="AE23" s="61"/>
     </row>
-    <row r="24" spans="2:31" ht="23">
-      <c r="B24" s="232"/>
+    <row r="24" spans="2:31" ht="24">
+      <c r="B24" s="222"/>
       <c r="C24" s="77" t="s">
         <v>104</v>
       </c>
@@ -23353,8 +23355,8 @@
       </c>
       <c r="AE24" s="61"/>
     </row>
-    <row r="25" spans="2:31" ht="23">
-      <c r="B25" s="232"/>
+    <row r="25" spans="2:31" ht="24">
+      <c r="B25" s="222"/>
       <c r="C25" s="77" t="s">
         <v>105</v>
       </c>
@@ -23377,7 +23379,7 @@
       <c r="AE25" s="61"/>
     </row>
     <row r="26" spans="2:31">
-      <c r="B26" s="232"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="77" t="s">
         <v>106</v>
       </c>
@@ -23393,8 +23395,8 @@
       <c r="M26" s="75"/>
       <c r="AE26" s="61"/>
     </row>
-    <row r="27" spans="2:31" ht="23">
-      <c r="B27" s="232"/>
+    <row r="27" spans="2:31" ht="24">
+      <c r="B27" s="222"/>
       <c r="C27" s="77" t="s">
         <v>107</v>
       </c>
@@ -23410,8 +23412,8 @@
       <c r="M27" s="75"/>
       <c r="AE27" s="61"/>
     </row>
-    <row r="28" spans="2:31" ht="23">
-      <c r="B28" s="232"/>
+    <row r="28" spans="2:31" ht="24">
+      <c r="B28" s="222"/>
       <c r="C28" s="77" t="s">
         <v>108</v>
       </c>
@@ -23429,8 +23431,8 @@
       </c>
       <c r="AE28" s="61"/>
     </row>
-    <row r="29" spans="2:31" ht="23">
-      <c r="B29" s="232"/>
+    <row r="29" spans="2:31" ht="24">
+      <c r="B29" s="222"/>
       <c r="C29" s="77" t="s">
         <v>109</v>
       </c>
@@ -23450,8 +23452,8 @@
       </c>
       <c r="AE29" s="61"/>
     </row>
-    <row r="30" spans="2:31" ht="23">
-      <c r="B30" s="232"/>
+    <row r="30" spans="2:31" ht="24">
+      <c r="B30" s="222"/>
       <c r="C30" s="77" t="s">
         <v>110</v>
       </c>
@@ -23469,8 +23471,8 @@
       <c r="M30" s="75"/>
       <c r="AE30" s="61"/>
     </row>
-    <row r="31" spans="2:31" ht="23">
-      <c r="B31" s="232"/>
+    <row r="31" spans="2:31" ht="24">
+      <c r="B31" s="222"/>
       <c r="C31" s="77" t="s">
         <v>111</v>
       </c>
@@ -23488,8 +23490,8 @@
       <c r="M31" s="75"/>
       <c r="AE31" s="61"/>
     </row>
-    <row r="32" spans="2:31" ht="23">
-      <c r="B32" s="232"/>
+    <row r="32" spans="2:31" ht="24">
+      <c r="B32" s="222"/>
       <c r="C32" s="77" t="s">
         <v>112</v>
       </c>
@@ -23509,8 +23511,8 @@
       <c r="M32" s="75"/>
       <c r="AE32" s="61"/>
     </row>
-    <row r="33" spans="2:31" ht="23">
-      <c r="B33" s="232"/>
+    <row r="33" spans="2:31" ht="24">
+      <c r="B33" s="222"/>
       <c r="C33" s="77" t="s">
         <v>113</v>
       </c>
@@ -23532,8 +23534,8 @@
       <c r="M33" s="75"/>
       <c r="AE33" s="61"/>
     </row>
-    <row r="34" spans="2:31" ht="23">
-      <c r="B34" s="232"/>
+    <row r="34" spans="2:31" ht="24">
+      <c r="B34" s="222"/>
       <c r="C34" s="77" t="s">
         <v>114</v>
       </c>
@@ -23555,8 +23557,8 @@
       <c r="M34" s="75"/>
       <c r="AE34" s="61"/>
     </row>
-    <row r="35" spans="2:31" ht="34.5">
-      <c r="B35" s="232"/>
+    <row r="35" spans="2:31" ht="36">
+      <c r="B35" s="222"/>
       <c r="C35" s="77" t="s">
         <v>115</v>
       </c>
@@ -23576,8 +23578,8 @@
       <c r="M35" s="75"/>
       <c r="AE35" s="61"/>
     </row>
-    <row r="36" spans="2:31" ht="23">
-      <c r="B36" s="232"/>
+    <row r="36" spans="2:31" ht="24">
+      <c r="B36" s="222"/>
       <c r="C36" s="77" t="s">
         <v>116</v>
       </c>
@@ -23597,8 +23599,8 @@
       </c>
       <c r="AE36" s="61"/>
     </row>
-    <row r="37" spans="2:31" ht="23">
-      <c r="B37" s="232"/>
+    <row r="37" spans="2:31" ht="24">
+      <c r="B37" s="222"/>
       <c r="C37" s="77" t="s">
         <v>117</v>
       </c>
@@ -23621,7 +23623,7 @@
       <c r="AE37" s="61"/>
     </row>
     <row r="38" spans="2:31">
-      <c r="B38" s="232"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="77" t="s">
         <v>73</v>
       </c>
@@ -23640,7 +23642,7 @@
       <c r="AE38" s="61"/>
     </row>
     <row r="39" spans="2:31">
-      <c r="B39" s="232"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="77" t="s">
         <v>89</v>
       </c>
@@ -23659,7 +23661,7 @@
       <c r="AE39" s="61"/>
     </row>
     <row r="40" spans="2:31">
-      <c r="B40" s="232"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="77" t="s">
         <v>90</v>
       </c>
@@ -23678,7 +23680,7 @@
       <c r="AE40" s="61"/>
     </row>
     <row r="41" spans="2:31">
-      <c r="B41" s="232"/>
+      <c r="B41" s="222"/>
       <c r="C41" s="77" t="s">
         <v>91</v>
       </c>
@@ -23695,7 +23697,7 @@
       <c r="AE41" s="61"/>
     </row>
     <row r="42" spans="2:31">
-      <c r="B42" s="232"/>
+      <c r="B42" s="222"/>
       <c r="C42" s="77" t="s">
         <v>76</v>
       </c>
@@ -23713,8 +23715,8 @@
       <c r="M42" s="75"/>
       <c r="AE42" s="61"/>
     </row>
-    <row r="43" spans="2:31">
-      <c r="B43" s="232"/>
+    <row r="43" spans="2:31" ht="24">
+      <c r="B43" s="222"/>
       <c r="C43" s="77" t="s">
         <v>77</v>
       </c>
@@ -23733,7 +23735,7 @@
       <c r="AE43" s="61"/>
     </row>
     <row r="44" spans="2:31">
-      <c r="B44" s="232"/>
+      <c r="B44" s="222"/>
       <c r="C44" s="77" t="s">
         <v>74</v>
       </c>
@@ -23749,8 +23751,8 @@
       <c r="M44" s="75"/>
       <c r="AE44" s="61"/>
     </row>
-    <row r="45" spans="2:31" ht="23">
-      <c r="B45" s="232"/>
+    <row r="45" spans="2:31" ht="24">
+      <c r="B45" s="222"/>
       <c r="C45" s="77" t="s">
         <v>75</v>
       </c>
@@ -23767,7 +23769,7 @@
       <c r="AE45" s="61"/>
     </row>
     <row r="46" spans="2:31">
-      <c r="B46" s="232"/>
+      <c r="B46" s="222"/>
       <c r="C46" s="77" t="s">
         <v>78</v>
       </c>
@@ -23785,8 +23787,8 @@
       <c r="M46" s="75"/>
       <c r="AE46" s="61"/>
     </row>
-    <row r="47" spans="2:31" ht="23">
-      <c r="B47" s="232"/>
+    <row r="47" spans="2:31" ht="24">
+      <c r="B47" s="222"/>
       <c r="C47" s="77" t="s">
         <v>79</v>
       </c>
@@ -23803,7 +23805,7 @@
       <c r="AE47" s="61"/>
     </row>
     <row r="48" spans="2:31">
-      <c r="B48" s="232"/>
+      <c r="B48" s="222"/>
       <c r="C48" s="77" t="s">
         <v>80</v>
       </c>
@@ -23821,8 +23823,8 @@
       <c r="M48" s="75"/>
       <c r="AE48" s="61"/>
     </row>
-    <row r="49" spans="2:31" ht="23">
-      <c r="B49" s="232"/>
+    <row r="49" spans="2:31" ht="24">
+      <c r="B49" s="222"/>
       <c r="C49" s="77" t="s">
         <v>81</v>
       </c>
@@ -23843,7 +23845,7 @@
       <c r="AE49" s="61"/>
     </row>
     <row r="50" spans="2:31">
-      <c r="B50" s="232"/>
+      <c r="B50" s="222"/>
       <c r="C50" s="77" t="s">
         <v>82</v>
       </c>
@@ -23867,8 +23869,8 @@
       </c>
       <c r="AE50" s="61"/>
     </row>
-    <row r="51" spans="2:31">
-      <c r="B51" s="232"/>
+    <row r="51" spans="2:31" ht="24">
+      <c r="B51" s="222"/>
       <c r="C51" s="77" t="s">
         <v>83</v>
       </c>
@@ -23887,7 +23889,7 @@
       <c r="AE51" s="61"/>
     </row>
     <row r="52" spans="2:31">
-      <c r="B52" s="232"/>
+      <c r="B52" s="222"/>
       <c r="C52" s="77" t="s">
         <v>84</v>
       </c>
@@ -23910,7 +23912,7 @@
       <c r="AE52" s="61"/>
     </row>
     <row r="53" spans="2:31">
-      <c r="B53" s="232"/>
+      <c r="B53" s="222"/>
       <c r="C53" s="77" t="s">
         <v>85</v>
       </c>
@@ -23935,7 +23937,7 @@
       <c r="AE53" s="61"/>
     </row>
     <row r="54" spans="2:31">
-      <c r="B54" s="232"/>
+      <c r="B54" s="222"/>
       <c r="C54" s="77" t="s">
         <v>88</v>
       </c>
@@ -23954,7 +23956,7 @@
       <c r="AE54" s="61"/>
     </row>
     <row r="55" spans="2:31">
-      <c r="B55" s="232"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="77" t="s">
         <v>86</v>
       </c>
@@ -23971,7 +23973,7 @@
       <c r="AE55" s="61"/>
     </row>
     <row r="56" spans="2:31">
-      <c r="B56" s="232"/>
+      <c r="B56" s="222"/>
       <c r="C56" s="77" t="s">
         <v>87</v>
       </c>
@@ -23990,41 +23992,46 @@
       <c r="AE56" s="61"/>
     </row>
     <row r="57" spans="2:31">
-      <c r="B57" s="228" t="s">
+      <c r="B57" s="218" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="228"/>
-      <c r="D57" s="228"/>
-      <c r="E57" s="228"/>
-      <c r="F57" s="228"/>
-      <c r="G57" s="228"/>
-      <c r="H57" s="228"/>
-      <c r="I57" s="228"/>
-      <c r="J57" s="228"/>
-      <c r="K57" s="228"/>
-      <c r="L57" s="228"/>
-      <c r="M57" s="228"/>
+      <c r="C57" s="218"/>
+      <c r="D57" s="218"/>
+      <c r="E57" s="218"/>
+      <c r="F57" s="218"/>
+      <c r="G57" s="218"/>
+      <c r="H57" s="218"/>
+      <c r="I57" s="218"/>
+      <c r="J57" s="218"/>
+      <c r="K57" s="218"/>
+      <c r="L57" s="218"/>
+      <c r="M57" s="218"/>
       <c r="AE57" s="61"/>
     </row>
     <row r="58" spans="2:31">
-      <c r="B58" s="228" t="s">
+      <c r="B58" s="218" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="228"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="228"/>
-      <c r="F58" s="228"/>
-      <c r="G58" s="228"/>
-      <c r="H58" s="228"/>
-      <c r="I58" s="228"/>
-      <c r="J58" s="228"/>
-      <c r="K58" s="228"/>
-      <c r="L58" s="228"/>
-      <c r="M58" s="228"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="218"/>
+      <c r="H58" s="218"/>
+      <c r="I58" s="218"/>
+      <c r="J58" s="218"/>
+      <c r="K58" s="218"/>
+      <c r="L58" s="218"/>
+      <c r="M58" s="218"/>
       <c r="AE58" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T4:AE4"/>
+    <mergeCell ref="T5"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="T10:AE10"/>
     <mergeCell ref="B57:M57"/>
     <mergeCell ref="B58:M58"/>
     <mergeCell ref="B14:C14"/>
@@ -24035,11 +24042,6 @@
     <mergeCell ref="B9:Q9"/>
     <mergeCell ref="B10:Q10"/>
     <mergeCell ref="B13:M13"/>
-    <mergeCell ref="T4:AE4"/>
-    <mergeCell ref="T5"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="T10:AE10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -24047,16 +24049,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BR30"/>
   <sheetViews>
     <sheetView topLeftCell="AP16" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="45" max="45" width="8.90625" style="184"/>
+    <col min="45" max="45" width="8.85546875" style="184"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:70">
@@ -24064,82 +24066,82 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="2:70" ht="15" thickBot="1">
-      <c r="B3" s="240" t="s">
+    <row r="3" spans="2:70" ht="15.75" thickBot="1">
+      <c r="B3" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="240"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240"/>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="235"/>
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="235"/>
+      <c r="AG3" s="235"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="235"/>
+      <c r="AJ3" s="235"/>
+      <c r="AK3" s="235"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="235"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="235"/>
       <c r="AS3" s="185"/>
-      <c r="AU3" s="237" t="s">
+      <c r="AU3" s="241" t="s">
         <v>503</v>
       </c>
-      <c r="AV3" s="237"/>
-      <c r="AW3" s="237"/>
-      <c r="AX3" s="237"/>
-      <c r="AY3" s="237"/>
-      <c r="AZ3" s="237"/>
-      <c r="BA3" s="237"/>
-      <c r="BB3" s="237"/>
-      <c r="BC3" s="237"/>
-      <c r="BD3" s="237"/>
-      <c r="BE3" s="237"/>
-      <c r="BF3" s="237"/>
-      <c r="BG3" s="237"/>
-      <c r="BH3" s="237"/>
-      <c r="BI3" s="237"/>
-      <c r="BJ3" s="237"/>
-      <c r="BK3" s="237"/>
-      <c r="BL3" s="237"/>
-      <c r="BM3" s="237"/>
-      <c r="BN3" s="237"/>
-      <c r="BO3" s="237"/>
-      <c r="BP3" s="237"/>
-      <c r="BQ3" s="237"/>
+      <c r="AV3" s="241"/>
+      <c r="AW3" s="241"/>
+      <c r="AX3" s="241"/>
+      <c r="AY3" s="241"/>
+      <c r="AZ3" s="241"/>
+      <c r="BA3" s="241"/>
+      <c r="BB3" s="241"/>
+      <c r="BC3" s="241"/>
+      <c r="BD3" s="241"/>
+      <c r="BE3" s="241"/>
+      <c r="BF3" s="241"/>
+      <c r="BG3" s="241"/>
+      <c r="BH3" s="241"/>
+      <c r="BI3" s="241"/>
+      <c r="BJ3" s="241"/>
+      <c r="BK3" s="241"/>
+      <c r="BL3" s="241"/>
+      <c r="BM3" s="241"/>
+      <c r="BN3" s="241"/>
+      <c r="BO3" s="241"/>
+      <c r="BP3" s="241"/>
+      <c r="BQ3" s="241"/>
       <c r="BR3" s="100"/>
     </row>
-    <row r="4" spans="2:70" ht="36.5" thickTop="1" thickBot="1">
-      <c r="B4" s="241" t="s">
+    <row r="4" spans="2:70" ht="38.25" thickTop="1" thickBot="1">
+      <c r="B4" s="236" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="81" t="s">
@@ -24269,7 +24271,7 @@
         <v>87</v>
       </c>
       <c r="AS4" s="185"/>
-      <c r="AU4" s="236" t="s">
+      <c r="AU4" s="240" t="s">
         <v>118</v>
       </c>
       <c r="AV4" s="101" t="s">
@@ -24340,7 +24342,7 @@
       </c>
       <c r="BR4" s="100"/>
     </row>
-    <row r="5" spans="2:70" ht="23.5" thickTop="1">
+    <row r="5" spans="2:70" ht="24.75" thickTop="1">
       <c r="B5" s="84" t="s">
         <v>119</v>
       </c>
@@ -24542,7 +24544,7 @@
       </c>
       <c r="BR5" s="100"/>
     </row>
-    <row r="6" spans="2:70" ht="34.5">
+    <row r="6" spans="2:70" ht="36">
       <c r="B6" s="88" t="s">
         <v>120</v>
       </c>
@@ -24946,7 +24948,7 @@
       </c>
       <c r="BR7" s="100"/>
     </row>
-    <row r="8" spans="2:70" ht="69">
+    <row r="8" spans="2:70" ht="72">
       <c r="B8" s="88" t="s">
         <v>122</v>
       </c>
@@ -25148,7 +25150,7 @@
       </c>
       <c r="BR8" s="100"/>
     </row>
-    <row r="9" spans="2:70" ht="46.5" thickBot="1">
+    <row r="9" spans="2:70" ht="48.75" thickBot="1">
       <c r="B9" s="95" t="s">
         <v>123</v>
       </c>
@@ -25350,152 +25352,152 @@
       </c>
       <c r="BR9" s="100"/>
     </row>
-    <row r="10" spans="2:70" ht="15" thickTop="1">
-      <c r="B10" s="242" t="s">
+    <row r="10" spans="2:70" ht="15.75" thickTop="1">
+      <c r="B10" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="242"/>
-      <c r="M10" s="242"/>
-      <c r="N10" s="242"/>
-      <c r="O10" s="242"/>
-      <c r="P10" s="242"/>
-      <c r="Q10" s="242"/>
-      <c r="R10" s="242"/>
-      <c r="S10" s="242"/>
-      <c r="T10" s="242"/>
-      <c r="U10" s="242"/>
-      <c r="V10" s="242"/>
-      <c r="W10" s="242"/>
-      <c r="X10" s="242"/>
-      <c r="Y10" s="242"/>
-      <c r="Z10" s="242"/>
-      <c r="AA10" s="242"/>
-      <c r="AB10" s="242"/>
-      <c r="AC10" s="242"/>
-      <c r="AD10" s="242"/>
-      <c r="AE10" s="242"/>
-      <c r="AF10" s="242"/>
-      <c r="AG10" s="242"/>
-      <c r="AH10" s="242"/>
-      <c r="AI10" s="242"/>
-      <c r="AJ10" s="242"/>
-      <c r="AK10" s="242"/>
-      <c r="AL10" s="242"/>
-      <c r="AM10" s="242"/>
-      <c r="AN10" s="242"/>
-      <c r="AO10" s="242"/>
-      <c r="AP10" s="242"/>
-      <c r="AQ10" s="242"/>
-      <c r="AR10" s="242"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="237"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="237"/>
+      <c r="S10" s="237"/>
+      <c r="T10" s="237"/>
+      <c r="U10" s="237"/>
+      <c r="V10" s="237"/>
+      <c r="W10" s="237"/>
+      <c r="X10" s="237"/>
+      <c r="Y10" s="237"/>
+      <c r="Z10" s="237"/>
+      <c r="AA10" s="237"/>
+      <c r="AB10" s="237"/>
+      <c r="AC10" s="237"/>
+      <c r="AD10" s="237"/>
+      <c r="AE10" s="237"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="237"/>
+      <c r="AH10" s="237"/>
+      <c r="AI10" s="237"/>
+      <c r="AJ10" s="237"/>
+      <c r="AK10" s="237"/>
+      <c r="AL10" s="237"/>
+      <c r="AM10" s="237"/>
+      <c r="AN10" s="237"/>
+      <c r="AO10" s="237"/>
+      <c r="AP10" s="237"/>
+      <c r="AQ10" s="237"/>
+      <c r="AR10" s="237"/>
       <c r="AS10" s="185"/>
-      <c r="AU10" s="235" t="s">
+      <c r="AU10" s="242" t="s">
         <v>494</v>
       </c>
-      <c r="AV10" s="235"/>
-      <c r="AW10" s="235"/>
-      <c r="AX10" s="235"/>
-      <c r="AY10" s="235"/>
-      <c r="AZ10" s="235"/>
-      <c r="BA10" s="235"/>
-      <c r="BB10" s="235"/>
-      <c r="BC10" s="235"/>
-      <c r="BD10" s="235"/>
-      <c r="BE10" s="235"/>
-      <c r="BF10" s="235"/>
-      <c r="BG10" s="235"/>
-      <c r="BH10" s="235"/>
-      <c r="BI10" s="235"/>
-      <c r="BJ10" s="235"/>
-      <c r="BK10" s="235"/>
-      <c r="BL10" s="235"/>
-      <c r="BM10" s="235"/>
-      <c r="BN10" s="235"/>
-      <c r="BO10" s="235"/>
-      <c r="BP10" s="235"/>
-      <c r="BQ10" s="235"/>
+      <c r="AV10" s="242"/>
+      <c r="AW10" s="242"/>
+      <c r="AX10" s="242"/>
+      <c r="AY10" s="242"/>
+      <c r="AZ10" s="242"/>
+      <c r="BA10" s="242"/>
+      <c r="BB10" s="242"/>
+      <c r="BC10" s="242"/>
+      <c r="BD10" s="242"/>
+      <c r="BE10" s="242"/>
+      <c r="BF10" s="242"/>
+      <c r="BG10" s="242"/>
+      <c r="BH10" s="242"/>
+      <c r="BI10" s="242"/>
+      <c r="BJ10" s="242"/>
+      <c r="BK10" s="242"/>
+      <c r="BL10" s="242"/>
+      <c r="BM10" s="242"/>
+      <c r="BN10" s="242"/>
+      <c r="BO10" s="242"/>
+      <c r="BP10" s="242"/>
+      <c r="BQ10" s="242"/>
       <c r="BR10" s="100"/>
     </row>
     <row r="11" spans="2:70">
-      <c r="B11" s="242" t="s">
+      <c r="B11" s="237" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="242"/>
-      <c r="M11" s="242"/>
-      <c r="N11" s="242"/>
-      <c r="O11" s="242"/>
-      <c r="P11" s="242"/>
-      <c r="Q11" s="242"/>
-      <c r="R11" s="242"/>
-      <c r="S11" s="242"/>
-      <c r="T11" s="242"/>
-      <c r="U11" s="242"/>
-      <c r="V11" s="242"/>
-      <c r="W11" s="242"/>
-      <c r="X11" s="242"/>
-      <c r="Y11" s="242"/>
-      <c r="Z11" s="242"/>
-      <c r="AA11" s="242"/>
-      <c r="AB11" s="242"/>
-      <c r="AC11" s="242"/>
-      <c r="AD11" s="242"/>
-      <c r="AE11" s="242"/>
-      <c r="AF11" s="242"/>
-      <c r="AG11" s="242"/>
-      <c r="AH11" s="242"/>
-      <c r="AI11" s="242"/>
-      <c r="AJ11" s="242"/>
-      <c r="AK11" s="242"/>
-      <c r="AL11" s="242"/>
-      <c r="AM11" s="242"/>
-      <c r="AN11" s="242"/>
-      <c r="AO11" s="242"/>
-      <c r="AP11" s="242"/>
-      <c r="AQ11" s="242"/>
-      <c r="AR11" s="242"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="237"/>
+      <c r="X11" s="237"/>
+      <c r="Y11" s="237"/>
+      <c r="Z11" s="237"/>
+      <c r="AA11" s="237"/>
+      <c r="AB11" s="237"/>
+      <c r="AC11" s="237"/>
+      <c r="AD11" s="237"/>
+      <c r="AE11" s="237"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="237"/>
+      <c r="AH11" s="237"/>
+      <c r="AI11" s="237"/>
+      <c r="AJ11" s="237"/>
+      <c r="AK11" s="237"/>
+      <c r="AL11" s="237"/>
+      <c r="AM11" s="237"/>
+      <c r="AN11" s="237"/>
+      <c r="AO11" s="237"/>
+      <c r="AP11" s="237"/>
+      <c r="AQ11" s="237"/>
+      <c r="AR11" s="237"/>
       <c r="AS11" s="185"/>
-      <c r="AU11" s="235" t="s">
+      <c r="AU11" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AV11" s="235"/>
-      <c r="AW11" s="235"/>
-      <c r="AX11" s="235"/>
-      <c r="AY11" s="235"/>
-      <c r="AZ11" s="235"/>
-      <c r="BA11" s="235"/>
-      <c r="BB11" s="235"/>
-      <c r="BC11" s="235"/>
-      <c r="BD11" s="235"/>
-      <c r="BE11" s="235"/>
-      <c r="BF11" s="235"/>
-      <c r="BG11" s="235"/>
-      <c r="BH11" s="235"/>
-      <c r="BI11" s="235"/>
-      <c r="BJ11" s="235"/>
-      <c r="BK11" s="235"/>
-      <c r="BL11" s="235"/>
-      <c r="BM11" s="235"/>
-      <c r="BN11" s="235"/>
-      <c r="BO11" s="235"/>
-      <c r="BP11" s="235"/>
-      <c r="BQ11" s="235"/>
+      <c r="AV11" s="242"/>
+      <c r="AW11" s="242"/>
+      <c r="AX11" s="242"/>
+      <c r="AY11" s="242"/>
+      <c r="AZ11" s="242"/>
+      <c r="BA11" s="242"/>
+      <c r="BB11" s="242"/>
+      <c r="BC11" s="242"/>
+      <c r="BD11" s="242"/>
+      <c r="BE11" s="242"/>
+      <c r="BF11" s="242"/>
+      <c r="BG11" s="242"/>
+      <c r="BH11" s="242"/>
+      <c r="BI11" s="242"/>
+      <c r="BJ11" s="242"/>
+      <c r="BK11" s="242"/>
+      <c r="BL11" s="242"/>
+      <c r="BM11" s="242"/>
+      <c r="BN11" s="242"/>
+      <c r="BO11" s="242"/>
+      <c r="BP11" s="242"/>
+      <c r="BQ11" s="242"/>
       <c r="BR11" s="100"/>
     </row>
     <row r="13" spans="2:70">
@@ -25503,55 +25505,55 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="2:70" ht="15" thickBot="1">
-      <c r="B14" s="239" t="s">
+    <row r="14" spans="2:70" ht="15.75" thickBot="1">
+      <c r="B14" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="239"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="238"/>
+      <c r="Q14" s="238"/>
       <c r="R14" s="100"/>
-      <c r="AU14" s="237" t="s">
+      <c r="AU14" s="241" t="s">
         <v>343</v>
       </c>
-      <c r="AV14" s="237"/>
-      <c r="AW14" s="237"/>
-      <c r="AX14" s="237"/>
-      <c r="AY14" s="237"/>
-      <c r="AZ14" s="237"/>
-      <c r="BA14" s="237"/>
-      <c r="BB14" s="237"/>
-      <c r="BC14" s="237"/>
-      <c r="BD14" s="237"/>
-      <c r="BE14" s="237"/>
-      <c r="BF14" s="237"/>
-      <c r="BG14" s="237"/>
-      <c r="BH14" s="237"/>
-      <c r="BI14" s="237"/>
-      <c r="BJ14" s="237"/>
-      <c r="BK14" s="237"/>
-      <c r="BL14" s="237"/>
-      <c r="BM14" s="237"/>
-      <c r="BN14" s="237"/>
-      <c r="BO14" s="237"/>
-      <c r="BP14" s="237"/>
-      <c r="BQ14" s="237"/>
+      <c r="AV14" s="241"/>
+      <c r="AW14" s="241"/>
+      <c r="AX14" s="241"/>
+      <c r="AY14" s="241"/>
+      <c r="AZ14" s="241"/>
+      <c r="BA14" s="241"/>
+      <c r="BB14" s="241"/>
+      <c r="BC14" s="241"/>
+      <c r="BD14" s="241"/>
+      <c r="BE14" s="241"/>
+      <c r="BF14" s="241"/>
+      <c r="BG14" s="241"/>
+      <c r="BH14" s="241"/>
+      <c r="BI14" s="241"/>
+      <c r="BJ14" s="241"/>
+      <c r="BK14" s="241"/>
+      <c r="BL14" s="241"/>
+      <c r="BM14" s="241"/>
+      <c r="BN14" s="241"/>
+      <c r="BO14" s="241"/>
+      <c r="BP14" s="241"/>
+      <c r="BQ14" s="241"/>
       <c r="BR14" s="100"/>
     </row>
-    <row r="15" spans="2:70" ht="59.5" thickTop="1" thickBot="1">
-      <c r="B15" s="236" t="s">
+    <row r="15" spans="2:70" ht="62.25" thickTop="1" thickBot="1">
+      <c r="B15" s="240" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="101" t="s">
@@ -25600,7 +25602,7 @@
         <v>167</v>
       </c>
       <c r="R15" s="100"/>
-      <c r="AU15" s="236" t="s">
+      <c r="AU15" s="240" t="s">
         <v>118</v>
       </c>
       <c r="AV15" s="101" t="s">
@@ -25671,7 +25673,7 @@
       </c>
       <c r="BR15" s="100"/>
     </row>
-    <row r="16" spans="2:70" ht="23.5" thickTop="1">
+    <row r="16" spans="2:70" ht="24.75" thickTop="1">
       <c r="B16" s="104" t="s">
         <v>121</v>
       </c>
@@ -25792,7 +25794,7 @@
       </c>
       <c r="BR16" s="100"/>
     </row>
-    <row r="17" spans="2:70" ht="69.5" thickBot="1">
+    <row r="17" spans="2:70" ht="72.75" thickBot="1">
       <c r="B17" s="108" t="s">
         <v>122</v>
       </c>
@@ -25913,25 +25915,25 @@
       </c>
       <c r="BR17" s="100"/>
     </row>
-    <row r="18" spans="2:70" ht="15" thickTop="1">
-      <c r="B18" s="238" t="s">
+    <row r="18" spans="2:70" ht="15.75" thickTop="1">
+      <c r="B18" s="239" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="238"/>
-      <c r="P18" s="238"/>
-      <c r="Q18" s="238"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="239"/>
+      <c r="N18" s="239"/>
+      <c r="O18" s="239"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="239"/>
       <c r="R18" s="100"/>
       <c r="AU18" s="175" t="s">
         <v>121</v>
@@ -26004,25 +26006,25 @@
       </c>
       <c r="BR18" s="100"/>
     </row>
-    <row r="19" spans="2:70" ht="69">
-      <c r="B19" s="238" t="s">
+    <row r="19" spans="2:70" ht="72">
+      <c r="B19" s="239" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="238"/>
-      <c r="O19" s="238"/>
-      <c r="P19" s="238"/>
-      <c r="Q19" s="238"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+      <c r="E19" s="239"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="239"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="239"/>
       <c r="R19" s="100"/>
       <c r="AU19" s="175" t="s">
         <v>122</v>
@@ -26095,25 +26097,25 @@
       </c>
       <c r="BR19" s="100"/>
     </row>
-    <row r="20" spans="2:70" ht="46.5" thickBot="1">
-      <c r="B20" s="238" t="s">
+    <row r="20" spans="2:70" ht="48.75" thickBot="1">
+      <c r="B20" s="239" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="238"/>
-      <c r="O20" s="238"/>
-      <c r="P20" s="238"/>
-      <c r="Q20" s="238"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="239"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="239"/>
       <c r="R20" s="100"/>
       <c r="AU20" s="108" t="s">
         <v>123</v>
@@ -26186,60 +26188,60 @@
       </c>
       <c r="BR20" s="100"/>
     </row>
-    <row r="21" spans="2:70" ht="15" thickTop="1">
-      <c r="AU21" s="235" t="s">
+    <row r="21" spans="2:70" ht="15.75" thickTop="1">
+      <c r="AU21" s="242" t="s">
         <v>494</v>
       </c>
-      <c r="AV21" s="235"/>
-      <c r="AW21" s="235"/>
-      <c r="AX21" s="235"/>
-      <c r="AY21" s="235"/>
-      <c r="AZ21" s="235"/>
-      <c r="BA21" s="235"/>
-      <c r="BB21" s="235"/>
-      <c r="BC21" s="235"/>
-      <c r="BD21" s="235"/>
-      <c r="BE21" s="235"/>
-      <c r="BF21" s="235"/>
-      <c r="BG21" s="235"/>
-      <c r="BH21" s="235"/>
-      <c r="BI21" s="235"/>
-      <c r="BJ21" s="235"/>
-      <c r="BK21" s="235"/>
-      <c r="BL21" s="235"/>
-      <c r="BM21" s="235"/>
-      <c r="BN21" s="235"/>
-      <c r="BO21" s="235"/>
-      <c r="BP21" s="235"/>
-      <c r="BQ21" s="235"/>
+      <c r="AV21" s="242"/>
+      <c r="AW21" s="242"/>
+      <c r="AX21" s="242"/>
+      <c r="AY21" s="242"/>
+      <c r="AZ21" s="242"/>
+      <c r="BA21" s="242"/>
+      <c r="BB21" s="242"/>
+      <c r="BC21" s="242"/>
+      <c r="BD21" s="242"/>
+      <c r="BE21" s="242"/>
+      <c r="BF21" s="242"/>
+      <c r="BG21" s="242"/>
+      <c r="BH21" s="242"/>
+      <c r="BI21" s="242"/>
+      <c r="BJ21" s="242"/>
+      <c r="BK21" s="242"/>
+      <c r="BL21" s="242"/>
+      <c r="BM21" s="242"/>
+      <c r="BN21" s="242"/>
+      <c r="BO21" s="242"/>
+      <c r="BP21" s="242"/>
+      <c r="BQ21" s="242"/>
       <c r="BR21" s="100"/>
     </row>
     <row r="22" spans="2:70">
-      <c r="AU22" s="235" t="s">
+      <c r="AU22" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AV22" s="235"/>
-      <c r="AW22" s="235"/>
-      <c r="AX22" s="235"/>
-      <c r="AY22" s="235"/>
-      <c r="AZ22" s="235"/>
-      <c r="BA22" s="235"/>
-      <c r="BB22" s="235"/>
-      <c r="BC22" s="235"/>
-      <c r="BD22" s="235"/>
-      <c r="BE22" s="235"/>
-      <c r="BF22" s="235"/>
-      <c r="BG22" s="235"/>
-      <c r="BH22" s="235"/>
-      <c r="BI22" s="235"/>
-      <c r="BJ22" s="235"/>
-      <c r="BK22" s="235"/>
-      <c r="BL22" s="235"/>
-      <c r="BM22" s="235"/>
-      <c r="BN22" s="235"/>
-      <c r="BO22" s="235"/>
-      <c r="BP22" s="235"/>
-      <c r="BQ22" s="235"/>
+      <c r="AV22" s="242"/>
+      <c r="AW22" s="242"/>
+      <c r="AX22" s="242"/>
+      <c r="AY22" s="242"/>
+      <c r="AZ22" s="242"/>
+      <c r="BA22" s="242"/>
+      <c r="BB22" s="242"/>
+      <c r="BC22" s="242"/>
+      <c r="BD22" s="242"/>
+      <c r="BE22" s="242"/>
+      <c r="BF22" s="242"/>
+      <c r="BG22" s="242"/>
+      <c r="BH22" s="242"/>
+      <c r="BI22" s="242"/>
+      <c r="BJ22" s="242"/>
+      <c r="BK22" s="242"/>
+      <c r="BL22" s="242"/>
+      <c r="BM22" s="242"/>
+      <c r="BN22" s="242"/>
+      <c r="BO22" s="242"/>
+      <c r="BP22" s="242"/>
+      <c r="BQ22" s="242"/>
       <c r="BR22" s="100"/>
     </row>
     <row r="23" spans="2:70">
@@ -26247,44 +26249,44 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="2:70" ht="15" thickBot="1">
-      <c r="B24" s="239" t="s">
+    <row r="24" spans="2:70" ht="15.75" thickBot="1">
+      <c r="B24" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="239"/>
-      <c r="M24" s="239"/>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="239"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="238"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="238"/>
       <c r="R24" s="100"/>
-      <c r="AW24" s="237" t="s">
+      <c r="AW24" s="241" t="s">
         <v>514</v>
       </c>
-      <c r="AX24" s="237"/>
-      <c r="AY24" s="237"/>
-      <c r="AZ24" s="237"/>
-      <c r="BA24" s="237"/>
-      <c r="BB24" s="237"/>
-      <c r="BC24" s="237"/>
-      <c r="BD24" s="237"/>
-      <c r="BE24" s="237"/>
-      <c r="BF24" s="237"/>
-      <c r="BG24" s="237"/>
-      <c r="BH24" s="237"/>
+      <c r="AX24" s="241"/>
+      <c r="AY24" s="241"/>
+      <c r="AZ24" s="241"/>
+      <c r="BA24" s="241"/>
+      <c r="BB24" s="241"/>
+      <c r="BC24" s="241"/>
+      <c r="BD24" s="241"/>
+      <c r="BE24" s="241"/>
+      <c r="BF24" s="241"/>
+      <c r="BG24" s="241"/>
+      <c r="BH24" s="241"/>
       <c r="BI24" s="100"/>
     </row>
-    <row r="25" spans="2:70" ht="71" thickTop="1" thickBot="1">
-      <c r="B25" s="236" t="s">
+    <row r="25" spans="2:70" ht="86.25" thickTop="1" thickBot="1">
+      <c r="B25" s="240" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="101" t="s">
@@ -26333,7 +26335,7 @@
         <v>167</v>
       </c>
       <c r="R25" s="100"/>
-      <c r="AW25" s="236" t="s">
+      <c r="AW25" s="240" t="s">
         <v>118</v>
       </c>
       <c r="AX25" s="101" t="s">
@@ -26371,7 +26373,7 @@
       </c>
       <c r="BI25" s="100"/>
     </row>
-    <row r="26" spans="2:70" ht="15" thickTop="1">
+    <row r="26" spans="2:70" ht="15.75" thickTop="1">
       <c r="B26" s="104" t="s">
         <v>121</v>
       </c>
@@ -26459,7 +26461,7 @@
       </c>
       <c r="BI26" s="100"/>
     </row>
-    <row r="27" spans="2:70" ht="69.5" thickBot="1">
+    <row r="27" spans="2:70" ht="72.75" thickBot="1">
       <c r="B27" s="108" t="s">
         <v>122</v>
       </c>
@@ -26547,121 +26549,129 @@
       </c>
       <c r="BI27" s="100"/>
     </row>
-    <row r="28" spans="2:70" ht="15" thickTop="1">
-      <c r="B28" s="238" t="s">
+    <row r="28" spans="2:70" ht="15.75" thickTop="1">
+      <c r="B28" s="239" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="238"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="239"/>
+      <c r="L28" s="239"/>
+      <c r="M28" s="239"/>
+      <c r="N28" s="239"/>
+      <c r="O28" s="239"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
       <c r="R28" s="100"/>
-      <c r="AW28" s="235" t="s">
+      <c r="AW28" s="242" t="s">
         <v>168</v>
       </c>
-      <c r="AX28" s="235"/>
-      <c r="AY28" s="235"/>
-      <c r="AZ28" s="235"/>
-      <c r="BA28" s="235"/>
-      <c r="BB28" s="235"/>
-      <c r="BC28" s="235"/>
-      <c r="BD28" s="235"/>
-      <c r="BE28" s="235"/>
-      <c r="BF28" s="235"/>
-      <c r="BG28" s="235"/>
-      <c r="BH28" s="235"/>
+      <c r="AX28" s="242"/>
+      <c r="AY28" s="242"/>
+      <c r="AZ28" s="242"/>
+      <c r="BA28" s="242"/>
+      <c r="BB28" s="242"/>
+      <c r="BC28" s="242"/>
+      <c r="BD28" s="242"/>
+      <c r="BE28" s="242"/>
+      <c r="BF28" s="242"/>
+      <c r="BG28" s="242"/>
+      <c r="BH28" s="242"/>
       <c r="BI28" s="100"/>
     </row>
     <row r="29" spans="2:70">
-      <c r="B29" s="238" t="s">
+      <c r="B29" s="239" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="238"/>
-      <c r="P29" s="238"/>
-      <c r="Q29" s="238"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="239"/>
+      <c r="L29" s="239"/>
+      <c r="M29" s="239"/>
+      <c r="N29" s="239"/>
+      <c r="O29" s="239"/>
+      <c r="P29" s="239"/>
+      <c r="Q29" s="239"/>
       <c r="R29" s="100"/>
-      <c r="AW29" s="235" t="s">
+      <c r="AW29" s="242" t="s">
         <v>456</v>
       </c>
-      <c r="AX29" s="235"/>
-      <c r="AY29" s="235"/>
-      <c r="AZ29" s="235"/>
-      <c r="BA29" s="235"/>
-      <c r="BB29" s="235"/>
-      <c r="BC29" s="235"/>
-      <c r="BD29" s="235"/>
-      <c r="BE29" s="235"/>
-      <c r="BF29" s="235"/>
-      <c r="BG29" s="235"/>
-      <c r="BH29" s="235"/>
+      <c r="AX29" s="242"/>
+      <c r="AY29" s="242"/>
+      <c r="AZ29" s="242"/>
+      <c r="BA29" s="242"/>
+      <c r="BB29" s="242"/>
+      <c r="BC29" s="242"/>
+      <c r="BD29" s="242"/>
+      <c r="BE29" s="242"/>
+      <c r="BF29" s="242"/>
+      <c r="BG29" s="242"/>
+      <c r="BH29" s="242"/>
       <c r="BI29" s="100"/>
     </row>
     <row r="30" spans="2:70">
-      <c r="B30" s="238" t="s">
+      <c r="B30" s="239" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
-      <c r="I30" s="238"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="238"/>
-      <c r="M30" s="238"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="238"/>
-      <c r="P30" s="238"/>
-      <c r="Q30" s="238"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="239"/>
+      <c r="L30" s="239"/>
+      <c r="M30" s="239"/>
+      <c r="N30" s="239"/>
+      <c r="O30" s="239"/>
+      <c r="P30" s="239"/>
+      <c r="Q30" s="239"/>
       <c r="R30" s="100"/>
-      <c r="AW30" s="235" t="s">
+      <c r="AW30" s="242" t="s">
         <v>457</v>
       </c>
-      <c r="AX30" s="235"/>
-      <c r="AY30" s="235"/>
-      <c r="AZ30" s="235"/>
-      <c r="BA30" s="235"/>
-      <c r="BB30" s="235"/>
-      <c r="BC30" s="235"/>
-      <c r="BD30" s="235"/>
-      <c r="BE30" s="235"/>
-      <c r="BF30" s="235"/>
-      <c r="BG30" s="235"/>
-      <c r="BH30" s="235"/>
+      <c r="AX30" s="242"/>
+      <c r="AY30" s="242"/>
+      <c r="AZ30" s="242"/>
+      <c r="BA30" s="242"/>
+      <c r="BB30" s="242"/>
+      <c r="BC30" s="242"/>
+      <c r="BD30" s="242"/>
+      <c r="BE30" s="242"/>
+      <c r="BF30" s="242"/>
+      <c r="BG30" s="242"/>
+      <c r="BH30" s="242"/>
       <c r="BI30" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B3:AR3"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="B10:AR10"/>
-    <mergeCell ref="B11:AR11"/>
-    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="AW28:BH28"/>
+    <mergeCell ref="AW29:BH29"/>
+    <mergeCell ref="AW30:BH30"/>
+    <mergeCell ref="AU15"/>
+    <mergeCell ref="AU21:BQ21"/>
+    <mergeCell ref="AU22:BQ22"/>
+    <mergeCell ref="AW24:BH24"/>
+    <mergeCell ref="AW25"/>
+    <mergeCell ref="AU3:BQ3"/>
+    <mergeCell ref="AU4"/>
+    <mergeCell ref="AU10:BQ10"/>
+    <mergeCell ref="AU11:BQ11"/>
+    <mergeCell ref="AU14:BQ14"/>
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B29:Q29"/>
     <mergeCell ref="B30:Q30"/>
@@ -26671,19 +26681,11 @@
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B20:Q20"/>
     <mergeCell ref="B25"/>
-    <mergeCell ref="AU3:BQ3"/>
-    <mergeCell ref="AU4"/>
-    <mergeCell ref="AU10:BQ10"/>
-    <mergeCell ref="AU11:BQ11"/>
-    <mergeCell ref="AU14:BQ14"/>
-    <mergeCell ref="AW28:BH28"/>
-    <mergeCell ref="AW29:BH29"/>
-    <mergeCell ref="AW30:BH30"/>
-    <mergeCell ref="AU15"/>
-    <mergeCell ref="AU21:BQ21"/>
-    <mergeCell ref="AU22:BQ22"/>
-    <mergeCell ref="AW24:BH24"/>
-    <mergeCell ref="AW25"/>
+    <mergeCell ref="B3:AR3"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="B10:AR10"/>
+    <mergeCell ref="B11:AR11"/>
+    <mergeCell ref="B24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26691,16 +26693,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AC48"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="S43" sqref="S25:S43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:29" ht="15" thickBot="1">
+    <row r="3" spans="2:29" ht="15.75" thickBot="1">
       <c r="B3" s="244" t="s">
         <v>201</v>
       </c>
@@ -26732,7 +26734,7 @@
       <c r="AB3" s="244"/>
       <c r="AC3" s="113"/>
     </row>
-    <row r="4" spans="2:29" ht="36.5" thickTop="1" thickBot="1">
+    <row r="4" spans="2:29" ht="38.25" thickTop="1" thickBot="1">
       <c r="B4" s="245" t="s">
         <v>118</v>
       </c>
@@ -26804,7 +26806,7 @@
       </c>
       <c r="AC4" s="113"/>
     </row>
-    <row r="5" spans="2:29" ht="15" thickTop="1">
+    <row r="5" spans="2:29" ht="15.75" thickTop="1">
       <c r="B5" s="247" t="s">
         <v>380</v>
       </c>
@@ -27110,7 +27112,7 @@
       <c r="AB13" s="116"/>
       <c r="AC13" s="113"/>
     </row>
-    <row r="14" spans="2:29" ht="23">
+    <row r="14" spans="2:29" ht="24">
       <c r="B14" s="248"/>
       <c r="C14" s="118" t="s">
         <v>104</v>
@@ -27142,7 +27144,7 @@
       <c r="AB14" s="116"/>
       <c r="AC14" s="113"/>
     </row>
-    <row r="15" spans="2:29" ht="23">
+    <row r="15" spans="2:29" ht="24">
       <c r="B15" s="248"/>
       <c r="C15" s="118" t="s">
         <v>105</v>
@@ -27210,7 +27212,7 @@
       <c r="AB16" s="116"/>
       <c r="AC16" s="113"/>
     </row>
-    <row r="17" spans="2:29" ht="23">
+    <row r="17" spans="2:29" ht="24">
       <c r="B17" s="248"/>
       <c r="C17" s="118" t="s">
         <v>107</v>
@@ -27244,7 +27246,7 @@
       <c r="AB17" s="116"/>
       <c r="AC17" s="113"/>
     </row>
-    <row r="18" spans="2:29" ht="23">
+    <row r="18" spans="2:29" ht="24">
       <c r="B18" s="248"/>
       <c r="C18" s="118" t="s">
         <v>108</v>
@@ -27280,7 +27282,7 @@
       <c r="AB18" s="116"/>
       <c r="AC18" s="113"/>
     </row>
-    <row r="19" spans="2:29" ht="23">
+    <row r="19" spans="2:29" ht="24">
       <c r="B19" s="248"/>
       <c r="C19" s="118" t="s">
         <v>109</v>
@@ -27316,7 +27318,7 @@
       <c r="AB19" s="116"/>
       <c r="AC19" s="113"/>
     </row>
-    <row r="20" spans="2:29" ht="23">
+    <row r="20" spans="2:29" ht="24">
       <c r="B20" s="248"/>
       <c r="C20" s="118" t="s">
         <v>110</v>
@@ -27354,7 +27356,7 @@
       <c r="AB20" s="116"/>
       <c r="AC20" s="113"/>
     </row>
-    <row r="21" spans="2:29" ht="23">
+    <row r="21" spans="2:29" ht="24">
       <c r="B21" s="248"/>
       <c r="C21" s="118" t="s">
         <v>111</v>
@@ -27392,7 +27394,7 @@
       <c r="AB21" s="116"/>
       <c r="AC21" s="113"/>
     </row>
-    <row r="22" spans="2:29" ht="23">
+    <row r="22" spans="2:29" ht="24">
       <c r="B22" s="248"/>
       <c r="C22" s="118" t="s">
         <v>112</v>
@@ -27428,7 +27430,7 @@
       <c r="AB22" s="116"/>
       <c r="AC22" s="113"/>
     </row>
-    <row r="23" spans="2:29" ht="23">
+    <row r="23" spans="2:29" ht="24">
       <c r="B23" s="248"/>
       <c r="C23" s="118" t="s">
         <v>113</v>
@@ -27464,7 +27466,7 @@
       <c r="AB23" s="116"/>
       <c r="AC23" s="113"/>
     </row>
-    <row r="24" spans="2:29" ht="23">
+    <row r="24" spans="2:29" ht="24">
       <c r="B24" s="248"/>
       <c r="C24" s="118" t="s">
         <v>114</v>
@@ -27502,7 +27504,7 @@
       <c r="AB24" s="116"/>
       <c r="AC24" s="113"/>
     </row>
-    <row r="25" spans="2:29" ht="34.5">
+    <row r="25" spans="2:29" ht="36">
       <c r="B25" s="248"/>
       <c r="C25" s="118" t="s">
         <v>115</v>
@@ -27540,7 +27542,7 @@
       <c r="AB25" s="116"/>
       <c r="AC25" s="113"/>
     </row>
-    <row r="26" spans="2:29" ht="23">
+    <row r="26" spans="2:29" ht="24">
       <c r="B26" s="248"/>
       <c r="C26" s="118" t="s">
         <v>116</v>
@@ -27574,7 +27576,7 @@
       <c r="AB26" s="116"/>
       <c r="AC26" s="113"/>
     </row>
-    <row r="27" spans="2:29" ht="23">
+    <row r="27" spans="2:29" ht="24">
       <c r="B27" s="248"/>
       <c r="C27" s="118" t="s">
         <v>117</v>
@@ -27774,7 +27776,7 @@
       </c>
       <c r="AC32" s="113"/>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" ht="24">
       <c r="B33" s="248"/>
       <c r="C33" s="118" t="s">
         <v>77</v>
@@ -27844,7 +27846,7 @@
       </c>
       <c r="AC34" s="113"/>
     </row>
-    <row r="35" spans="2:29" ht="23">
+    <row r="35" spans="2:29" ht="24">
       <c r="B35" s="248"/>
       <c r="C35" s="118" t="s">
         <v>75</v>
@@ -27914,7 +27916,7 @@
       <c r="AB36" s="116"/>
       <c r="AC36" s="113"/>
     </row>
-    <row r="37" spans="2:29" ht="23">
+    <row r="37" spans="2:29" ht="24">
       <c r="B37" s="248"/>
       <c r="C37" s="118" t="s">
         <v>79</v>
@@ -27984,7 +27986,7 @@
       <c r="AB38" s="116"/>
       <c r="AC38" s="113"/>
     </row>
-    <row r="39" spans="2:29" ht="23">
+    <row r="39" spans="2:29" ht="24">
       <c r="B39" s="248"/>
       <c r="C39" s="118" t="s">
         <v>81</v>
@@ -28052,7 +28054,7 @@
       <c r="AB40" s="116"/>
       <c r="AC40" s="113"/>
     </row>
-    <row r="41" spans="2:29">
+    <row r="41" spans="2:29" ht="24">
       <c r="B41" s="248"/>
       <c r="C41" s="118" t="s">
         <v>83</v>
@@ -28332,12 +28334,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
